--- a/test/regression/commands/general/FillRegression/ExpectedResults/Test_FillRegression_Streamflow_Month_OneEquation_excel.xlsx
+++ b/test/regression/commands/general/FillRegression/ExpectedResults/Test_FillRegression_Streamflow_Month_OneEquation_excel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="216">
   <si>
     <t>1997-01</t>
   </si>
@@ -544,127 +544,127 @@
     <t>Data sheet is the independent time series (B), copied from the CSV, the dependent time series (C ), copied from the CSV, and the estimated values for the dependent (D), calculated using B and values in "calc".</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>MeanX1</t>
+  </si>
+  <si>
+    <t>SX1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>MeanX2</t>
+  </si>
+  <si>
+    <t>SX2</t>
+  </si>
+  <si>
+    <t>MeanY1</t>
+  </si>
+  <si>
+    <t>SY1</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>MeanY</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>SkewY</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>MeanY1est</t>
+  </si>
+  <si>
+    <t>SY1est</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>SESlope</t>
+  </si>
+  <si>
+    <t>TestScore</t>
+  </si>
+  <si>
+    <t>TestQuantile</t>
+  </si>
+  <si>
+    <t>TestOK</t>
+  </si>
+  <si>
+    <t>SampleSizeOK</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>NYfilled</t>
+  </si>
+  <si>
+    <t>MeanYfilled</t>
+  </si>
+  <si>
+    <t>SYfilled</t>
+  </si>
+  <si>
+    <t>SkewYfilled</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>dependent</t>
+  </si>
+  <si>
+    <t>filled value</t>
+  </si>
+  <si>
+    <t>filled value - filled mean</t>
+  </si>
+  <si>
+    <t>dependent - mean</t>
+  </si>
+  <si>
+    <t>dependent - filled value</t>
+  </si>
+  <si>
+    <t>independent - mean</t>
+  </si>
+  <si>
+    <t>It also includes various values subtracted from each other to facilitate the calculation of the standard deviation.</t>
+  </si>
+  <si>
+    <t>Final is where to copy the results as value, since TSTool has trouble evaluating some formulas.</t>
+  </si>
+  <si>
+    <t>Any values set in the command (e.g. type of transformation) must be entered by hand.</t>
+  </si>
+  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>MeanX1</t>
-  </si>
-  <si>
-    <t>SX1</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>MeanX2</t>
-  </si>
-  <si>
-    <t>SX2</t>
-  </si>
-  <si>
-    <t>MeanY1</t>
-  </si>
-  <si>
-    <t>SY1</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>MeanY</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>SkewY</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>MeanY1est</t>
-  </si>
-  <si>
-    <t>SY1est</t>
-  </si>
-  <si>
-    <t>RMSE</t>
-  </si>
-  <si>
-    <t>SEE</t>
-  </si>
-  <si>
-    <t>SESlope</t>
-  </si>
-  <si>
-    <t>TestScore</t>
-  </si>
-  <si>
-    <t>TestQuantile</t>
-  </si>
-  <si>
-    <t>TestOK</t>
-  </si>
-  <si>
-    <t>SampleSizeOK</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>NYfilled</t>
-  </si>
-  <si>
-    <t>MeanYfilled</t>
-  </si>
-  <si>
-    <t>SYfilled</t>
-  </si>
-  <si>
-    <t>SkewYfilled</t>
-  </si>
-  <si>
-    <t>independent</t>
-  </si>
-  <si>
-    <t>dependent</t>
-  </si>
-  <si>
-    <t>filled value</t>
-  </si>
-  <si>
-    <t>filled value - filled mean</t>
-  </si>
-  <si>
-    <t>dependent - mean</t>
-  </si>
-  <si>
-    <t>dependent - filled value</t>
-  </si>
-  <si>
-    <t>independent - mean</t>
-  </si>
-  <si>
-    <t>It also includes various values subtracted from each other to facilitate the calculation of the standard deviation.</t>
-  </si>
-  <si>
-    <t>Final is where to copy the results as value, since TSTool has trouble evaluating some formulas.</t>
-  </si>
-  <si>
-    <t>Any values set in the command (e.g. type of transformation) must be entered by hand.</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1029,12 +1029,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1066,25 +1066,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>207</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>208</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>209</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>211</v>
-      </c>
-      <c r="H1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4499,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="BH2" sqref="BH2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4609,94 +4609,94 @@
         <v>168</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -4734,10 +4734,10 @@
         <v>2009-12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
         <v>70</v>
@@ -4831,11 +4831,15 @@
         <v>60.826590865708425</v>
       </c>
       <c r="AJ2" s="1">
-        <f>_xlfn.T.INV(M2/100,N2-2)</f>
-        <v>0.52822122736447541</v>
+        <f>ABS(_xlfn.T.INV.2T((100 - M2)/100,N2-2))</f>
+        <v>1.0487936214894282</v>
       </c>
       <c r="AK2" s="1" t="str">
         <f>IF(AI2&gt;AJ2,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="AL2" s="1" t="str">
+        <f>IF(N2&gt;=3,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="AN2" s="1">
@@ -5070,10 +5074,10 @@
         <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M1" s="1">
         <v>70</v>
@@ -5145,9 +5149,12 @@
         <v>60.826590865708425</v>
       </c>
       <c r="AJ1" s="1">
-        <v>0.52822122736447541</v>
+        <v>1.0487936214894282</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AN1" s="1">
